--- a/settings/noreadytable/Summoned.xlsx
+++ b/settings/noreadytable/Summoned.xlsx
@@ -7,9 +7,7 @@
     <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Summoned" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -347,7 +345,7 @@
     <t>upg_alice</t>
   </si>
   <si>
-    <t>rou_alice_base</t>
+    <t>rou_alice_attachment1_base</t>
   </si>
   <si>
     <t>魔理沙×爱丽丝</t>
@@ -1346,11 +1344,11 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1365,7 +1363,7 @@
     <col min="8" max="8" width="14.0909090909091" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="13.8181818181818" customWidth="1"/>
-    <col min="11" max="11" width="20.5454545454545" customWidth="1"/>
+    <col min="11" max="11" width="29.8181818181818" customWidth="1"/>
     <col min="12" max="12" width="21.6363636363636" customWidth="1"/>
     <col min="13" max="14" width="29.8181818181818" customWidth="1"/>
     <col min="15" max="15" width="27.7272727272727" customWidth="1"/>
@@ -1621,38 +1619,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/settings/noreadytable/Summoned.xlsx
+++ b/settings/noreadytable/Summoned.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\noreadytable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC638DCC-37AA-4E98-B225-8953C7312FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summoned" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>string</t>
   </si>
@@ -300,9 +306,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>using_upgrade</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -379,19 +382,25 @@
   </si>
   <si>
     <t>rou_alice_ptchouli2_base</t>
+  </si>
+  <si>
+    <t>upgrade_group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,352 +416,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -760,251 +453,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,9 +464,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1030,62 +478,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1335,288 +742,283 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="10.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="12.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="15.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="25.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="21.9090909090909" customWidth="1"/>
-    <col min="8" max="8" width="14.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13.8181818181818" customWidth="1"/>
-    <col min="11" max="11" width="29.8181818181818" customWidth="1"/>
-    <col min="12" max="12" width="21.6363636363636" customWidth="1"/>
-    <col min="13" max="14" width="29.8181818181818" customWidth="1"/>
-    <col min="15" max="15" width="27.7272727272727" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="29.77734375" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="14" width="29.77734375" customWidth="1"/>
+    <col min="15" max="15" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="138" spans="1:15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:17">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="5" t="str">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
         <f>C4&amp;"_"&amp;D4</f>
         <v>sum_alice_base</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="L4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="5" t="str">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
         <f>C5&amp;"_"&amp;D5</f>
         <v>sum_alice_marisa</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="5" t="str">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
         <f>C6&amp;"_"&amp;D6</f>
         <v>sum_alice_patchouli</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="M6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>